--- a/NFL Excel Sheets/Defense_TACKLES.xlsx
+++ b/NFL Excel Sheets/Defense_TACKLES.xlsx
@@ -59842,37 +59842,37 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Washington Redskins</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>790</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>558</t>
         </is>
       </c>
       <c r="F1123" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>232</t>
         </is>
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J1123" t="inlineStr">
@@ -59895,27 +59895,27 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>733</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>501</t>
         </is>
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>232</t>
         </is>
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr">
@@ -59925,12 +59925,12 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J1124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K1124" t="n">
@@ -59948,42 +59948,42 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>727</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>528</t>
         </is>
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J1125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K1125" t="n">
@@ -60001,37 +60001,37 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Washington Redskins</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>496</t>
         </is>
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>225</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
@@ -60054,42 +60054,42 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>720</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>494</t>
         </is>
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>226</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J1127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1127" t="n">
@@ -60107,42 +60107,42 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>719</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>464</t>
         </is>
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>255</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K1128" t="n">
@@ -60160,37 +60160,37 @@
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>705</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>457</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>248</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J1129" t="inlineStr">
@@ -60213,22 +60213,22 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>704</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>503</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>201</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -60238,12 +60238,12 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J1130" t="inlineStr">
@@ -60266,42 +60266,42 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>699</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>448</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>251</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1131" t="n">
@@ -60319,37 +60319,37 @@
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>698</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>256</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J1132" t="inlineStr">
@@ -60372,42 +60372,42 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>697</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>448</t>
         </is>
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>249</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K1133" t="n">
@@ -60425,37 +60425,37 @@
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>689</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>513</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J1134" t="inlineStr">
@@ -60478,27 +60478,27 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>686</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>444</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>242</t>
         </is>
       </c>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -60508,7 +60508,7 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J1135" t="inlineStr">
@@ -60531,27 +60531,27 @@
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>679</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>482</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H1136" t="inlineStr">
@@ -60561,12 +60561,12 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1136" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="J1136" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="K1136" t="n">
@@ -60584,42 +60584,42 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>672</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>494</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G1137" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1137" t="n">
@@ -60642,32 +60642,32 @@
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>507</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>159</t>
         </is>
       </c>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J1138" t="inlineStr">
@@ -60685,32 +60685,32 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>657</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>461</t>
         </is>
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G1139" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="H1139" t="inlineStr">
@@ -60720,12 +60720,12 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K1139" t="n">
@@ -60738,47 +60738,47 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>650</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>412</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>238</t>
         </is>
       </c>
       <c r="G1140" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K1140" t="n">
@@ -60796,37 +60796,37 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>647</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>449</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G1141" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J1141" t="inlineStr">
@@ -60849,42 +60849,42 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>646</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>437</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G1142" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H1142" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I1142" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1142" t="n">
@@ -60902,37 +60902,37 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>640</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>428</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>212</t>
         </is>
       </c>
       <c r="G1143" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
@@ -60955,37 +60955,37 @@
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>639</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>498</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>141</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J1144" t="inlineStr">
@@ -61008,42 +61008,42 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>628</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>441</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1145" t="n">
@@ -61061,42 +61061,42 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>625</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>456</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K1146" t="n">
@@ -61114,42 +61114,42 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Oakland Raiders</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>623</t>
         </is>
       </c>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>466</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1147" t="n">
@@ -61167,27 +61167,27 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>621</t>
         </is>
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>468</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr">
@@ -61197,7 +61197,7 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J1148" t="inlineStr">
@@ -61220,32 +61220,32 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>612</t>
         </is>
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>433</t>
         </is>
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>179</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -61273,42 +61273,42 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>604</t>
         </is>
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>428</t>
         </is>
       </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K1150" t="n">
@@ -61326,42 +61326,42 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Oakland Raiders</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>587</t>
         </is>
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>416</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K1151" t="n">
@@ -61379,42 +61379,42 @@
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>569</t>
         </is>
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>417</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I1152" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K1152" t="n">
@@ -61432,42 +61432,42 @@
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>558</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>408</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I1153" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K1153" t="n">
@@ -61485,42 +61485,42 @@
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>547</t>
         </is>
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>404</t>
         </is>
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>143</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K1154" t="n">
